--- a/www/mesures/3.0.0/StructureDefinition-mes-fr-observation-heartrate.xlsx
+++ b/www/mesures/3.0.0/StructureDefinition-mes-fr-observation-heartrate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4855" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="692">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:26:47+01:00</t>
+    <t>2023-03-22T16:32:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -374,270 +374,267 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Observation.meta.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Uri identifiant les systèmes tiers ayant envoyé la ressource. L’uri est sous la forme d’un oid : « urn:oid:xx.xx.xx »</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Observation.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Observation.meta.profile:MesFrObservationHeartrate</t>
+  </si>
+  <si>
+    <t>Observation.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Observation.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension:levelOfExertion</t>
+  </si>
+  <si>
+    <t>levelOfExertion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interopsante.org/fhir/StructureDefinition/FrObservationLevelOfExertion}
+</t>
+  </si>
+  <si>
+    <t>Cette extension permet de définir le niveau d'effort (au repos, à l'effort, après l'effort) lors de la mesure de la fréquence respiratoire</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Observation.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Observation.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Uri identifiant les systèmes tiers ayant envoyé la ressource. L’uri est sous la forme d’un oid : « urn:oid:xx.xx.xx »</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:$this}
-</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile:MesFrObservationHeartrate</t>
-  </si>
-  <si>
-    <t>Observation.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension:levelOfExertion</t>
-  </si>
-  <si>
-    <t>levelOfExertion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://interopsante.org/fhir/StructureDefinition/FrObservationLevelOfExertion}
-</t>
-  </si>
-  <si>
-    <t>Cette extension permet de définir le niveau d'effort (au repos, à l'effort, après l'effort) lors de la mesure de la fréquence respiratoire</t>
-  </si>
-  <si>
     <t>Observation.extension:bodyPosition</t>
   </si>
   <si>
@@ -661,6 +658,12 @@
 </t>
   </si>
   <si>
+    <t>Other information that may be relevant to this event.</t>
+  </si>
+  <si>
+    <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
+  </si>
+  <si>
     <t>Observation.extension:MesMomentOfMeasurement</t>
   </si>
   <si>
@@ -1336,7 +1339,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|http://interopsante.org/fhir/StructureDefinition/FrPractitioner|http://interopsante.org/fhir/StructureDefinition/FrPractitionerRoleExercice|http://interopsante.org/fhir/StructureDefinition/FrOrganization|http://interopsante.org/fhir/StructureDefinition/FrPatient|http://interopsante.org/fhir/StructureDefinition/FrRelatedPerson)
+    <t xml:space="preserve">Reference(CareTeam|http://interopsante.org/fhir/StructureDefinition/FrPractitioner|http://www.interopsante.org/fhir/structuredefinition/fr-practitioner-role|http://interopsante.org/fhir/StructureDefinition/FrOrganization|http://interopsante.org/fhir/StructureDefinition/FrPatient|http://interopsante.org/fhir/StructureDefinition/FrRelatedPerson)
 </t>
   </si>
   <si>
@@ -1611,9 +1614,6 @@
     <t>Observation.dataAbsentReason.coding.code</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Observation.dataAbsentReason.coding.display</t>
   </si>
   <si>
@@ -1642,7 +1642,7 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>http://www.interopsante.org/fhir/structuredefinition/observation/fr-core-obervation-interpretation</t>
+    <t>http://www.interopsante.org/fhir/structuredefinition/observation/fr-obervation-interpretation</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1685,7 +1685,10 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Non utilisé</t>
+    <t>Observed body part</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
@@ -2023,6 +2026,12 @@
   <si>
     <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
 </t>
+  </si>
+  <si>
+    <t>Used when reporting vital signs panel components</t>
+  </si>
+  <si>
+    <t>Used when reporting vital signs panel components.</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
@@ -3224,11 +3233,11 @@
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
       </c>
@@ -3239,7 +3248,7 @@
         <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>78</v>
@@ -3250,10 +3259,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3279,13 +3288,13 @@
         <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3335,7 +3344,7 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -3344,10 +3353,10 @@
         <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -3359,7 +3368,7 @@
         <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>78</v>
@@ -3370,10 +3379,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3396,16 +3405,16 @@
         <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3455,7 +3464,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -3464,10 +3473,10 @@
         <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -3479,7 +3488,7 @@
         <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>78</v>
@@ -3490,10 +3499,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3516,16 +3525,16 @@
         <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3575,7 +3584,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -3584,10 +3593,10 @@
         <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -3599,7 +3608,7 @@
         <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>78</v>
@@ -3610,10 +3619,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3636,16 +3645,16 @@
         <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3683,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
@@ -3693,7 +3702,7 @@
         <v>114</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3702,10 +3711,10 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -3717,7 +3726,7 @@
         <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>78</v>
@@ -3728,10 +3737,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>7</v>
@@ -3756,16 +3765,16 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3815,7 +3824,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3824,10 +3833,10 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -3839,7 +3848,7 @@
         <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3850,10 +3859,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3876,16 +3885,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3911,31 +3920,31 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="Z12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3944,10 +3953,10 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3956,10 +3965,10 @@
         <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>78</v>
@@ -3970,10 +3979,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3996,16 +4005,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -4031,13 +4040,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -4055,7 +4064,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -4064,10 +4073,10 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -4076,10 +4085,10 @@
         <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>78</v>
@@ -4090,10 +4099,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4116,16 +4125,16 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4175,7 +4184,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -4187,7 +4196,7 @@
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -4210,10 +4219,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4236,16 +4245,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4271,13 +4280,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -4295,7 +4304,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -4307,7 +4316,7 @@
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -4330,14 +4339,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4356,16 +4365,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4415,7 +4424,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -4427,7 +4436,7 @@
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -4439,7 +4448,7 @@
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -4450,14 +4459,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4476,16 +4485,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4535,7 +4544,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -4559,7 +4568,7 @@
         <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -4570,14 +4579,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4599,14 +4608,12 @@
         <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -4653,7 +4660,7 @@
         <v>114</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -4665,7 +4672,7 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -4677,7 +4684,7 @@
         <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -4688,13 +4695,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
@@ -4716,13 +4723,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4773,7 +4780,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -4782,10 +4789,10 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -4797,7 +4804,7 @@
         <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -4808,13 +4815,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -4836,13 +4843,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4893,7 +4900,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4902,10 +4909,10 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
@@ -4917,7 +4924,7 @@
         <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -4928,16 +4935,16 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="D21" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4956,17 +4963,15 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="M21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -5015,7 +5020,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -5024,10 +5029,10 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
@@ -5039,7 +5044,7 @@
         <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -5050,13 +5055,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
@@ -5078,13 +5083,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5135,7 +5140,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -5147,7 +5152,7 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -5170,10 +5175,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5199,16 +5204,16 @@
         <v>108</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>111</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -5257,7 +5262,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -5269,7 +5274,7 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -5281,7 +5286,7 @@
         <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -5292,10 +5297,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5318,17 +5323,17 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -5377,7 +5382,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -5389,22 +5394,22 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>78</v>
@@ -5412,14 +5417,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5438,17 +5443,17 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -5497,7 +5502,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -5509,19 +5514,19 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -5532,14 +5537,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5558,16 +5563,16 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5617,7 +5622,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -5629,19 +5634,19 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -5652,10 +5657,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5678,19 +5683,19 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5715,11 +5720,11 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -5737,7 +5742,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>88</v>
@@ -5749,22 +5754,22 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>78</v>
@@ -5772,10 +5777,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5798,19 +5803,19 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5835,19 +5840,19 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
@@ -5857,7 +5862,7 @@
         <v>114</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5869,7 +5874,7 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -5881,10 +5886,10 @@
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>78</v>
@@ -5892,13 +5897,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>78</v>
@@ -5920,19 +5925,19 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5957,13 +5962,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5981,7 +5986,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5993,7 +5998,7 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -6005,10 +6010,10 @@
         <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>78</v>
@@ -6016,10 +6021,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6134,10 +6139,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6231,7 +6236,7 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
@@ -6254,10 +6259,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6280,19 +6285,19 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -6341,7 +6346,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -6353,7 +6358,7 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -6362,10 +6367,10 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -6376,10 +6381,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6494,10 +6499,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6591,7 +6596,7 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -6614,10 +6619,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6640,26 +6645,26 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>78</v>
@@ -6701,7 +6706,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6713,7 +6718,7 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -6722,10 +6727,10 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6736,10 +6741,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6765,13 +6770,13 @@
         <v>101</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6821,7 +6826,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6833,7 +6838,7 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -6842,10 +6847,10 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6856,10 +6861,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6882,24 +6887,24 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>78</v>
@@ -6941,7 +6946,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6953,7 +6958,7 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -6962,10 +6967,10 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6976,10 +6981,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7005,14 +7010,14 @@
         <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -7061,7 +7066,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -7073,7 +7078,7 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -7082,10 +7087,10 @@
         <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -7096,10 +7101,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7122,19 +7127,19 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -7183,7 +7188,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -7195,7 +7200,7 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -7204,10 +7209,10 @@
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -7218,10 +7223,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7247,16 +7252,16 @@
         <v>101</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -7305,7 +7310,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -7317,7 +7322,7 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
@@ -7326,10 +7331,10 @@
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -7340,14 +7345,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7366,19 +7371,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -7403,13 +7408,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -7427,7 +7432,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>88</v>
@@ -7439,33 +7444,33 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7580,10 +7585,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7677,7 +7682,7 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
@@ -7700,10 +7705,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7726,19 +7731,19 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7775,7 +7780,7 @@
         <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
@@ -7785,7 +7790,7 @@
         <v>114</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7797,7 +7802,7 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -7806,10 +7811,10 @@
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7820,13 +7825,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>78</v>
@@ -7848,19 +7853,19 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7909,7 +7914,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7921,7 +7926,7 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -7930,10 +7935,10 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7944,10 +7949,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8062,10 +8067,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8159,7 +8164,7 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -8182,10 +8187,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8208,26 +8213,26 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>78</v>
@@ -8269,7 +8274,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -8281,7 +8286,7 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -8290,10 +8295,10 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -8304,10 +8309,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8333,13 +8338,13 @@
         <v>101</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8389,7 +8394,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -8401,7 +8406,7 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -8410,10 +8415,10 @@
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -8424,10 +8429,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8450,24 +8455,24 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>78</v>
@@ -8509,7 +8514,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -8521,7 +8526,7 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
@@ -8530,10 +8535,10 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -8544,10 +8549,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8573,14 +8578,14 @@
         <v>101</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -8629,7 +8634,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -8641,7 +8646,7 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
@@ -8650,10 +8655,10 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -8664,10 +8669,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8690,19 +8695,19 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -8751,7 +8756,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -8763,7 +8768,7 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -8772,10 +8777,10 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -8786,10 +8791,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8815,16 +8820,16 @@
         <v>101</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8873,7 +8878,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8885,7 +8890,7 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -8894,10 +8899,10 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -8908,10 +8913,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8934,19 +8939,19 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8995,7 +9000,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -9007,22 +9012,22 @@
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>78</v>
@@ -9030,10 +9035,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9056,16 +9061,16 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9115,7 +9120,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -9127,7 +9132,7 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
@@ -9136,13 +9141,13 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>78</v>
@@ -9150,14 +9155,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9176,19 +9181,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -9237,7 +9242,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -9249,22 +9254,22 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>78</v>
@@ -9272,14 +9277,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9298,19 +9303,19 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -9359,7 +9364,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -9368,25 +9373,25 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>78</v>
@@ -9394,10 +9399,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9420,16 +9425,16 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9479,7 +9484,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -9491,7 +9496,7 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
@@ -9500,13 +9505,13 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>78</v>
@@ -9514,10 +9519,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9540,17 +9545,17 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -9599,7 +9604,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -9611,22 +9616,22 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>78</v>
@@ -9634,10 +9639,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9660,19 +9665,19 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -9709,17 +9714,17 @@
         <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -9728,39 +9733,39 @@
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>78</v>
@@ -9782,19 +9787,19 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9843,7 +9848,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9852,36 +9857,36 @@
         <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9996,10 +10001,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10093,7 +10098,7 @@
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
@@ -10116,10 +10121,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10142,19 +10147,19 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -10203,7 +10208,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -10215,7 +10220,7 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -10224,10 +10229,10 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -10238,10 +10243,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10264,23 +10269,23 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>78</v>
@@ -10301,13 +10306,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -10325,7 +10330,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -10337,7 +10342,7 @@
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -10346,10 +10351,10 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>78</v>
@@ -10360,10 +10365,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10389,14 +10394,14 @@
         <v>101</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -10445,7 +10450,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -10457,7 +10462,7 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -10466,10 +10471,10 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>78</v>
@@ -10480,10 +10485,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10506,24 +10511,24 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>78</v>
@@ -10565,7 +10570,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -10574,10 +10579,10 @@
         <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -10586,10 +10591,10 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>78</v>
@@ -10600,10 +10605,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10626,26 +10631,26 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>78</v>
@@ -10687,7 +10692,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -10699,7 +10704,7 @@
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
@@ -10708,10 +10713,10 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>78</v>
@@ -10722,10 +10727,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10748,19 +10753,19 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10785,13 +10790,13 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -10809,7 +10814,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -10818,10 +10823,10 @@
         <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -10830,10 +10835,10 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -10844,10 +10849,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10962,10 +10967,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11056,11 +11061,11 @@
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AJ71" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
       </c>
@@ -11071,7 +11076,7 @@
         <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>78</v>
@@ -11082,10 +11087,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11108,19 +11113,19 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -11169,7 +11174,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -11178,10 +11183,10 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
@@ -11190,10 +11195,10 @@
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>78</v>
@@ -11204,10 +11209,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11322,10 +11327,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11416,11 +11421,11 @@
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AJ74" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
       </c>
@@ -11431,7 +11436,7 @@
         <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>78</v>
@@ -11442,10 +11447,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11468,19 +11473,19 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -11529,7 +11534,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -11538,10 +11543,10 @@
         <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -11550,10 +11555,10 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>78</v>
@@ -11564,10 +11569,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11593,13 +11598,13 @@
         <v>101</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11649,7 +11654,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -11658,10 +11663,10 @@
         <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -11670,10 +11675,10 @@
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>78</v>
@@ -11684,10 +11689,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11710,19 +11715,17 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -11771,7 +11774,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -11780,10 +11783,10 @@
         <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -11792,10 +11795,10 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>78</v>
@@ -11835,16 +11838,14 @@
         <v>101</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -11893,7 +11894,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11902,10 +11903,10 @@
         <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
@@ -11914,10 +11915,10 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>78</v>
@@ -11954,19 +11955,19 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -12015,7 +12016,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -12024,10 +12025,10 @@
         <v>88</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -12036,10 +12037,10 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>78</v>
@@ -12079,16 +12080,16 @@
         <v>101</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -12137,7 +12138,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -12146,10 +12147,10 @@
         <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -12158,10 +12159,10 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>78</v>
@@ -12198,7 +12199,7 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>519</v>
@@ -12235,7 +12236,7 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
@@ -12269,7 +12270,7 @@
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -12391,7 +12392,7 @@
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
@@ -12440,16 +12441,16 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>537</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12475,11 +12476,11 @@
         <v>78</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
@@ -12509,33 +12510,33 @@
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12650,10 +12651,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12747,7 +12748,7 @@
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12770,10 +12771,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12796,19 +12797,19 @@
         <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -12833,11 +12834,11 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>78</v>
@@ -12855,7 +12856,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -12867,7 +12868,7 @@
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -12876,10 +12877,10 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>78</v>
@@ -12890,10 +12891,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12919,16 +12920,16 @@
         <v>101</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>78</v>
@@ -12977,7 +12978,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -12989,7 +12990,7 @@
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12998,10 +12999,10 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>78</v>
@@ -13012,10 +13013,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13038,19 +13039,19 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -13075,13 +13076,13 @@
         <v>78</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>78</v>
@@ -13099,7 +13100,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -13111,7 +13112,7 @@
         <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
@@ -13120,10 +13121,10 @@
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>78</v>
@@ -13134,10 +13135,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13252,10 +13253,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13349,7 +13350,7 @@
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -13372,10 +13373,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13398,19 +13399,19 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -13435,11 +13436,11 @@
         <v>78</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>78</v>
@@ -13457,7 +13458,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -13469,7 +13470,7 @@
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -13478,10 +13479,10 @@
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>78</v>
@@ -13492,10 +13493,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13521,16 +13522,16 @@
         <v>101</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -13579,7 +13580,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -13591,7 +13592,7 @@
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
@@ -13600,10 +13601,10 @@
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>78</v>
@@ -13614,10 +13615,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13640,16 +13641,16 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13699,7 +13700,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -13711,33 +13712,33 @@
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13760,16 +13761,16 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13819,7 +13820,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
@@ -13831,33 +13832,33 @@
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13880,19 +13881,19 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>78</v>
@@ -13941,7 +13942,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -13953,7 +13954,7 @@
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>78</v>
@@ -13962,10 +13963,10 @@
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>78</v>
@@ -13976,10 +13977,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14094,10 +14095,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14191,7 +14192,7 @@
         <v>78</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
@@ -14214,14 +14215,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14243,16 +14244,16 @@
         <v>108</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>111</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -14301,7 +14302,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -14313,7 +14314,7 @@
         <v>78</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>78</v>
@@ -14325,7 +14326,7 @@
         <v>78</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>78</v>
@@ -14336,10 +14337,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14362,13 +14363,13 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14419,7 +14420,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -14428,10 +14429,10 @@
         <v>88</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>78</v>
@@ -14440,10 +14441,10 @@
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>78</v>
@@ -14454,10 +14455,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14480,13 +14481,13 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14537,7 +14538,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
@@ -14546,10 +14547,10 @@
         <v>88</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
@@ -14558,10 +14559,10 @@
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>78</v>
@@ -14572,10 +14573,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14598,19 +14599,19 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>78</v>
@@ -14635,13 +14636,13 @@
         <v>78</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>78</v>
@@ -14659,7 +14660,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
@@ -14671,16 +14672,16 @@
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>526</v>
@@ -14694,10 +14695,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14720,19 +14721,19 @@
         <v>78</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>78</v>
@@ -14757,13 +14758,13 @@
         <v>78</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>78</v>
@@ -14781,7 +14782,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -14793,16 +14794,16 @@
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>526</v>
@@ -14816,10 +14817,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14934,10 +14935,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15028,11 +15029,11 @@
         <v>77</v>
       </c>
       <c r="AI104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AJ104" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AK104" t="s" s="2">
         <v>78</v>
       </c>
@@ -15043,7 +15044,7 @@
         <v>78</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>78</v>
@@ -15054,10 +15055,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15080,19 +15081,19 @@
         <v>89</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
@@ -15141,7 +15142,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -15150,10 +15151,10 @@
         <v>77</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>78</v>
@@ -15162,10 +15163,10 @@
         <v>78</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>78</v>
@@ -15176,10 +15177,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15294,10 +15295,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15388,11 +15389,11 @@
         <v>77</v>
       </c>
       <c r="AI107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AJ107" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AK107" t="s" s="2">
         <v>78</v>
       </c>
@@ -15403,7 +15404,7 @@
         <v>78</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>78</v>
@@ -15414,10 +15415,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15440,19 +15441,19 @@
         <v>89</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>78</v>
@@ -15501,7 +15502,7 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
@@ -15510,10 +15511,10 @@
         <v>88</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>78</v>
@@ -15522,10 +15523,10 @@
         <v>78</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>78</v>
@@ -15536,10 +15537,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15565,13 +15566,13 @@
         <v>101</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15621,7 +15622,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>76</v>
@@ -15630,10 +15631,10 @@
         <v>88</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>78</v>
@@ -15642,10 +15643,10 @@
         <v>78</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>78</v>
@@ -15656,10 +15657,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15682,19 +15683,17 @@
         <v>89</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
@@ -15743,7 +15742,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>76</v>
@@ -15752,10 +15751,10 @@
         <v>88</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>78</v>
@@ -15764,10 +15763,10 @@
         <v>78</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>78</v>
@@ -15778,10 +15777,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15807,16 +15806,14 @@
         <v>101</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>78</v>
@@ -15865,7 +15862,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>76</v>
@@ -15874,10 +15871,10 @@
         <v>88</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>78</v>
@@ -15886,10 +15883,10 @@
         <v>78</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>78</v>
@@ -15900,10 +15897,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15926,19 +15923,19 @@
         <v>89</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>78</v>
@@ -15987,7 +15984,7 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>76</v>
@@ -15996,10 +15993,10 @@
         <v>88</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>78</v>
@@ -16008,10 +16005,10 @@
         <v>78</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>78</v>
@@ -16022,10 +16019,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16051,16 +16048,16 @@
         <v>101</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>78</v>
@@ -16109,7 +16106,7 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>76</v>
@@ -16118,10 +16115,10 @@
         <v>88</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>78</v>
@@ -16130,10 +16127,10 @@
         <v>78</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>78</v>
@@ -16144,10 +16141,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16170,17 +16167,17 @@
         <v>78</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
@@ -16229,7 +16226,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>76</v>
@@ -16241,7 +16238,7 @@
         <v>78</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>78</v>
@@ -16253,7 +16250,7 @@
         <v>78</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>78</v>
@@ -16264,10 +16261,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16293,10 +16290,10 @@
         <v>101</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -16347,7 +16344,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>76</v>
@@ -16359,7 +16356,7 @@
         <v>78</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>78</v>
@@ -16368,10 +16365,10 @@
         <v>78</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>78</v>
@@ -16382,10 +16379,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16408,16 +16405,16 @@
         <v>89</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>537</v>
+        <v>645</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>537</v>
+        <v>646</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16467,7 +16464,7 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>76</v>
@@ -16479,7 +16476,7 @@
         <v>78</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>78</v>
@@ -16488,10 +16485,10 @@
         <v>78</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>78</v>
@@ -16502,10 +16499,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16528,16 +16525,16 @@
         <v>89</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -16587,7 +16584,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>76</v>
@@ -16599,7 +16596,7 @@
         <v>78</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>78</v>
@@ -16608,10 +16605,10 @@
         <v>78</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>78</v>
@@ -16622,10 +16619,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16648,19 +16645,19 @@
         <v>89</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>78</v>
@@ -16709,7 +16706,7 @@
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>76</v>
@@ -16721,7 +16718,7 @@
         <v>78</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>78</v>
@@ -16730,10 +16727,10 @@
         <v>78</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>78</v>
@@ -16744,10 +16741,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16862,10 +16859,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16959,7 +16956,7 @@
         <v>78</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>78</v>
@@ -16982,14 +16979,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -17011,16 +17008,16 @@
         <v>108</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>111</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>78</v>
@@ -17069,7 +17066,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>76</v>
@@ -17081,7 +17078,7 @@
         <v>78</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>78</v>
@@ -17093,7 +17090,7 @@
         <v>78</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>78</v>
@@ -17104,10 +17101,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17130,19 +17127,19 @@
         <v>89</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>78</v>
@@ -17167,13 +17164,13 @@
         <v>78</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>78</v>
@@ -17191,7 +17188,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>88</v>
@@ -17203,22 +17200,22 @@
         <v>78</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AP122" t="s" s="2">
         <v>78</v>
@@ -17226,10 +17223,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17252,19 +17249,19 @@
         <v>89</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>78</v>
@@ -17289,13 +17286,13 @@
         <v>78</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>78</v>
@@ -17313,7 +17310,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>76</v>
@@ -17322,36 +17319,36 @@
         <v>88</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17374,19 +17371,19 @@
         <v>78</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>78</v>
@@ -17411,13 +17408,13 @@
         <v>78</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>78</v>
@@ -17435,7 +17432,7 @@
         <v>78</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>76</v>
@@ -17444,10 +17441,10 @@
         <v>88</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>78</v>
@@ -17456,10 +17453,10 @@
         <v>78</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>78</v>
@@ -17470,10 +17467,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17496,7 +17493,7 @@
         <v>78</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L125" t="s" s="2">
         <v>519</v>
@@ -17533,13 +17530,13 @@
         <v>78</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>78</v>
@@ -17557,7 +17554,7 @@
         <v>78</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>76</v>
@@ -17569,7 +17566,7 @@
         <v>78</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>78</v>
@@ -17592,10 +17589,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17621,16 +17618,16 @@
         <v>79</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>78</v>
@@ -17679,7 +17676,7 @@
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>76</v>
@@ -17691,7 +17688,7 @@
         <v>78</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>78</v>
@@ -17700,10 +17697,10 @@
         <v>78</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>78</v>
